--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_50_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_50_1_replicas.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="184">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -31,9 +34,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -64,472 +64,511 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>0.869+/-0.002</t>
   </si>
   <si>
     <t>0.827+/-0.0</t>
   </si>
   <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>0.954+/-0.003</t>
-  </si>
-  <si>
-    <t>0.738+/-0.047</t>
+    <t>0.819</t>
+  </si>
+  <si>
+    <t>0.954+/-0.005</t>
+  </si>
+  <si>
+    <t>0.74+/-0.049</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>0.365+/-0.009</t>
+  </si>
+  <si>
+    <t>0.213+/-0.049</t>
+  </si>
+  <si>
+    <t>0.181</t>
+  </si>
+  <si>
+    <t>4.98+/-0.058</t>
+  </si>
+  <si>
+    <t>0.839+/-0.001</t>
+  </si>
+  <si>
+    <t>0.83+/-0.0</t>
+  </si>
+  <si>
+    <t>0.822</t>
+  </si>
+  <si>
+    <t>0.73+/-0.006</t>
+  </si>
+  <si>
+    <t>0.679+/-0.057</t>
+  </si>
+  <si>
+    <t>0.651</t>
+  </si>
+  <si>
+    <t>0.322+/-0.007</t>
+  </si>
+  <si>
+    <t>0.297+/-0.049</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>0.922+/-0.016</t>
+  </si>
+  <si>
+    <t>0.866+/-0.002</t>
+  </si>
+  <si>
+    <t>0.834+/-0.0</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.854+/-0.006</t>
+  </si>
+  <si>
+    <t>0.693+/-0.045</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>0.401+/-0.007</t>
+  </si>
+  <si>
+    <t>0.309+/-0.057</t>
+  </si>
+  <si>
+    <t>0.293</t>
+  </si>
+  <si>
+    <t>3.585+/-0.082</t>
+  </si>
+  <si>
+    <t>0.814+/-0.001</t>
+  </si>
+  <si>
+    <t>0.808+/-0.0</t>
+  </si>
+  <si>
+    <t>0.805</t>
+  </si>
+  <si>
+    <t>0.815+/-0.011</t>
+  </si>
+  <si>
+    <t>0.698+/-0.093</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>0.099+/-0.007</t>
+  </si>
+  <si>
+    <t>0.075+/-0.034</t>
+  </si>
+  <si>
+    <t>0.061</t>
+  </si>
+  <si>
+    <t>0.522+/-0.01</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.893+/-0.001</t>
+  </si>
+  <si>
+    <t>0.863+/-0.0</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.963+/-0.005</t>
+  </si>
+  <si>
+    <t>0.719+/-0.095</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.298+/-0.007</t>
+  </si>
+  <si>
+    <t>0.144+/-0.031</t>
+  </si>
+  <si>
+    <t>0.122</t>
+  </si>
+  <si>
+    <t>4.813+/-0.06</t>
+  </si>
+  <si>
+    <t>0.874+/-0.001</t>
+  </si>
+  <si>
+    <t>0.866+/-0.0</t>
+  </si>
+  <si>
+    <t>0.855</t>
+  </si>
+  <si>
+    <t>0.697+/-0.011</t>
+  </si>
+  <si>
+    <t>0.636+/-0.047</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.278+/-0.006</t>
+  </si>
+  <si>
+    <t>0.255+/-0.026</t>
+  </si>
+  <si>
+    <t>0.176</t>
+  </si>
+  <si>
+    <t>0.911+/-0.039</t>
+  </si>
+  <si>
+    <t>0.899+/-0.001</t>
+  </si>
+  <si>
+    <t>0.869+/-0.0</t>
+  </si>
+  <si>
+    <t>0.861</t>
+  </si>
+  <si>
+    <t>0.852+/-0.008</t>
+  </si>
+  <si>
+    <t>0.649+/-0.055</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.393+/-0.009</t>
+  </si>
+  <si>
+    <t>0.272+/-0.04</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>3.47+/-0.041</t>
+  </si>
+  <si>
+    <t>0.858+/-0.001</t>
+  </si>
+  <si>
+    <t>0.853+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.833+/-0.019</t>
+  </si>
+  <si>
+    <t>0.646+/-0.112</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>0.069+/-0.009</t>
+  </si>
+  <si>
+    <t>0.041+/-0.008</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.532+/-0.036</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.781+/-0.003</t>
+  </si>
+  <si>
+    <t>0.735+/-0.0</t>
+  </si>
+  <si>
+    <t>0.737</t>
+  </si>
+  <si>
+    <t>0.986+/-0.004</t>
+  </si>
+  <si>
+    <t>0.658+/-0.053</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.211+/-0.01</t>
+  </si>
+  <si>
+    <t>0.092+/-0.022</t>
+  </si>
+  <si>
+    <t>0.095</t>
+  </si>
+  <si>
+    <t>4.982+/-0.081</t>
+  </si>
+  <si>
+    <t>0.742+/-0.001</t>
+  </si>
+  <si>
+    <t>0.73+/-0.0</t>
+  </si>
+  <si>
+    <t>0.732</t>
+  </si>
+  <si>
+    <t>0.657+/-0.013</t>
+  </si>
+  <si>
+    <t>0.565+/-0.083</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.14+/-0.008</t>
+  </si>
+  <si>
+    <t>0.119+/-0.019</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>0.975+/-0.028</t>
+  </si>
+  <si>
+    <t>0.772+/-0.002</t>
+  </si>
+  <si>
+    <t>0.734+/-0.0</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.861+/-0.011</t>
+  </si>
+  <si>
+    <t>0.594+/-0.059</t>
+  </si>
+  <si>
+    <t>0.212+/-0.01</t>
+  </si>
+  <si>
+    <t>0.131+/-0.023</t>
+  </si>
+  <si>
+    <t>0.126</t>
+  </si>
+  <si>
+    <t>3.796+/-0.086</t>
+  </si>
+  <si>
+    <t>0.733+/-0.001</t>
+  </si>
+  <si>
+    <t>0.728+/-0.0</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.861+/-0.007</t>
+  </si>
+  <si>
+    <t>0.717+/-0.108</t>
+  </si>
+  <si>
+    <t>0.833</t>
+  </si>
+  <si>
+    <t>0.041+/-0.004</t>
+  </si>
+  <si>
+    <t>0.029+/-0.012</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>0.522+/-0.018</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.744+/-0.003</t>
+  </si>
+  <si>
+    <t>0.708+/-0.0</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.981+/-0.004</t>
+  </si>
+  <si>
+    <t>0.684+/-0.063</t>
+  </si>
+  <si>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>0.172+/-0.01</t>
+  </si>
+  <si>
+    <t>0.092+/-0.023</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>5.196+/-0.079</t>
+  </si>
+  <si>
+    <t>0.712+/-0.001</t>
+  </si>
+  <si>
+    <t>0.702+/-0.0</t>
+  </si>
+  <si>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.684+/-0.01</t>
+  </si>
+  <si>
+    <t>0.588+/-0.066</t>
+  </si>
+  <si>
+    <t>0.585</t>
+  </si>
+  <si>
+    <t>0.119+/-0.006</t>
+  </si>
+  <si>
+    <t>0.1+/-0.024</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>0.859+/-0.038</t>
+  </si>
+  <si>
+    <t>0.747+/-0.002</t>
+  </si>
+  <si>
+    <t>0.703+/-0.0</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>0.871+/-0.008</t>
+  </si>
+  <si>
+    <t>0.581+/-0.061</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>0.21+/-0.008</t>
+  </si>
+  <si>
+    <t>0.127+/-0.026</t>
+  </si>
+  <si>
+    <t>0.117</t>
+  </si>
+  <si>
+    <t>3.399+/-0.14</t>
+  </si>
+  <si>
+    <t>0.703+/-0.001</t>
+  </si>
+  <si>
+    <t>0.698+/-0.0</t>
   </si>
   <si>
     <t>0.695</t>
   </si>
   <si>
-    <t>0.365+/-0.009</t>
-  </si>
-  <si>
-    <t>0.219+/-0.052</t>
-  </si>
-  <si>
-    <t>0.195</t>
-  </si>
-  <si>
-    <t>7.128+/-0.376</t>
-  </si>
-  <si>
-    <t>0.839+/-0.002</t>
-  </si>
-  <si>
-    <t>0.831+/-0.0</t>
-  </si>
-  <si>
-    <t>0.821</t>
-  </si>
-  <si>
-    <t>0.73+/-0.01</t>
-  </si>
-  <si>
-    <t>0.681+/-0.043</t>
-  </si>
-  <si>
-    <t>0.642</t>
-  </si>
-  <si>
-    <t>0.322+/-0.007</t>
-  </si>
-  <si>
-    <t>0.3+/-0.052</t>
-  </si>
-  <si>
-    <t>0.253</t>
-  </si>
-  <si>
-    <t>1.256+/-0.119</t>
-  </si>
-  <si>
-    <t>0.865+/-0.002</t>
-  </si>
-  <si>
-    <t>0.833+/-0.0</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.853+/-0.006</t>
-  </si>
-  <si>
-    <t>0.689+/-0.04</t>
-  </si>
-  <si>
-    <t>0.686</t>
-  </si>
-  <si>
-    <t>0.397+/-0.009</t>
-  </si>
-  <si>
-    <t>0.307+/-0.048</t>
-  </si>
-  <si>
-    <t>0.291</t>
-  </si>
-  <si>
-    <t>4.659+/-0.057</t>
-  </si>
-  <si>
-    <t>0.814+/-0.001</t>
-  </si>
-  <si>
-    <t>0.807+/-0.0</t>
-  </si>
-  <si>
-    <t>0.803</t>
-  </si>
-  <si>
-    <t>0.822+/-0.005</t>
-  </si>
-  <si>
-    <t>0.696+/-0.096</t>
-  </si>
-  <si>
-    <t>0.636</t>
-  </si>
-  <si>
-    <t>0.1+/-0.005</t>
-  </si>
-  <si>
-    <t>0.073+/-0.03</t>
-  </si>
-  <si>
-    <t>0.056</t>
-  </si>
-  <si>
-    <t>0.789+/-0.117</t>
-  </si>
-  <si>
-    <t>0.892+/-0.001</t>
-  </si>
-  <si>
-    <t>0.862+/-0.0</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>0.96+/-0.006</t>
-  </si>
-  <si>
-    <t>0.698+/-0.09</t>
-  </si>
-  <si>
-    <t>0.673</t>
-  </si>
-  <si>
-    <t>0.289+/-0.006</t>
-  </si>
-  <si>
-    <t>0.144+/-0.028</t>
-  </si>
-  <si>
-    <t>0.125</t>
-  </si>
-  <si>
-    <t>7.294+/-0.659</t>
-  </si>
-  <si>
-    <t>0.874+/-0.001</t>
-  </si>
-  <si>
-    <t>0.864+/-0.0</t>
-  </si>
-  <si>
-    <t>0.857</t>
-  </si>
-  <si>
-    <t>0.7+/-0.012</t>
-  </si>
-  <si>
-    <t>0.626+/-0.032</t>
-  </si>
-  <si>
-    <t>0.568</t>
-  </si>
-  <si>
-    <t>0.278+/-0.009</t>
-  </si>
-  <si>
-    <t>0.242+/-0.023</t>
-  </si>
-  <si>
-    <t>0.194</t>
-  </si>
-  <si>
-    <t>1.623+/-0.169</t>
-  </si>
-  <si>
-    <t>0.899+/-0.001</t>
-  </si>
-  <si>
-    <t>0.869+/-0.0</t>
-  </si>
-  <si>
-    <t>0.861</t>
-  </si>
-  <si>
-    <t>0.855+/-0.009</t>
-  </si>
-  <si>
-    <t>0.645+/-0.051</t>
-  </si>
-  <si>
-    <t>0.593</t>
-  </si>
-  <si>
-    <t>0.39+/-0.01</t>
-  </si>
-  <si>
-    <t>0.276+/-0.047</t>
-  </si>
-  <si>
-    <t>0.229</t>
-  </si>
-  <si>
-    <t>4.793+/-0.192</t>
-  </si>
-  <si>
-    <t>0.858+/-0.001</t>
-  </si>
-  <si>
-    <t>0.853+/-0.0</t>
-  </si>
-  <si>
-    <t>0.852</t>
-  </si>
-  <si>
-    <t>0.82+/-0.025</t>
-  </si>
-  <si>
-    <t>0.642+/-0.132</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>0.069+/-0.01</t>
-  </si>
-  <si>
-    <t>0.041+/-0.007</t>
-  </si>
-  <si>
-    <t>0.036</t>
-  </si>
-  <si>
-    <t>0.915+/-0.017</t>
-  </si>
-  <si>
-    <t>0.782+/-0.003</t>
-  </si>
-  <si>
-    <t>0.735+/-0.0</t>
-  </si>
-  <si>
-    <t>0.737</t>
-  </si>
-  <si>
-    <t>0.985+/-0.004</t>
-  </si>
-  <si>
-    <t>0.643+/-0.047</t>
-  </si>
-  <si>
-    <t>0.671</t>
-  </si>
-  <si>
-    <t>0.215+/-0.009</t>
-  </si>
-  <si>
-    <t>0.095+/-0.025</t>
-  </si>
-  <si>
-    <t>0.095</t>
-  </si>
-  <si>
-    <t>7.177+/-0.59</t>
-  </si>
-  <si>
-    <t>0.741+/-0.001</t>
-  </si>
-  <si>
-    <t>0.729+/-0.0</t>
-  </si>
-  <si>
-    <t>0.658+/-0.015</t>
-  </si>
-  <si>
-    <t>0.563+/-0.09</t>
-  </si>
-  <si>
-    <t>0.624</t>
-  </si>
-  <si>
-    <t>0.138+/-0.01</t>
-  </si>
-  <si>
-    <t>0.115+/-0.02</t>
-  </si>
-  <si>
-    <t>0.122</t>
-  </si>
-  <si>
-    <t>1.345+/-0.054</t>
-  </si>
-  <si>
-    <t>0.773+/-0.002</t>
-  </si>
-  <si>
-    <t>0.734</t>
-  </si>
-  <si>
-    <t>0.869+/-0.013</t>
-  </si>
-  <si>
-    <t>0.606+/-0.064</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.213+/-0.01</t>
-  </si>
-  <si>
-    <t>0.133+/-0.022</t>
-  </si>
-  <si>
-    <t>0.132</t>
-  </si>
-  <si>
-    <t>5.044+/-0.078</t>
-  </si>
-  <si>
-    <t>0.733+/-0.001</t>
-  </si>
-  <si>
-    <t>0.729</t>
-  </si>
-  <si>
-    <t>0.729+/-0.107</t>
-  </si>
-  <si>
-    <t>0.824</t>
-  </si>
-  <si>
-    <t>0.044+/-0.003</t>
-  </si>
-  <si>
-    <t>0.032+/-0.014</t>
-  </si>
-  <si>
-    <t>0.027</t>
-  </si>
-  <si>
-    <t>0.747+/-0.027</t>
-  </si>
-  <si>
-    <t>0.743+/-0.002</t>
-  </si>
-  <si>
-    <t>0.707+/-0.0</t>
-  </si>
-  <si>
-    <t>0.701</t>
-  </si>
-  <si>
-    <t>0.983+/-0.004</t>
-  </si>
-  <si>
-    <t>0.686+/-0.067</t>
-  </si>
-  <si>
-    <t>0.614</t>
-  </si>
-  <si>
-    <t>0.167+/-0.008</t>
-  </si>
-  <si>
-    <t>0.088+/-0.024</t>
-  </si>
-  <si>
-    <t>0.075</t>
-  </si>
-  <si>
-    <t>6.33+/-0.094</t>
-  </si>
-  <si>
-    <t>0.711+/-0.001</t>
-  </si>
-  <si>
-    <t>0.699+/-0.0</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.68+/-0.017</t>
-  </si>
-  <si>
-    <t>0.564+/-0.062</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>0.12+/-0.005</t>
-  </si>
-  <si>
-    <t>0.1+/-0.025</t>
-  </si>
-  <si>
-    <t>0.087</t>
-  </si>
-  <si>
-    <t>1.265+/-0.069</t>
-  </si>
-  <si>
-    <t>0.746+/-0.002</t>
-  </si>
-  <si>
-    <t>0.704+/-0.0</t>
-  </si>
-  <si>
-    <t>0.705</t>
-  </si>
-  <si>
-    <t>0.868+/-0.008</t>
-  </si>
-  <si>
-    <t>0.588+/-0.052</t>
-  </si>
-  <si>
-    <t>0.607</t>
-  </si>
-  <si>
-    <t>0.206+/-0.009</t>
-  </si>
-  <si>
-    <t>0.127+/-0.025</t>
-  </si>
-  <si>
-    <t>0.124</t>
-  </si>
-  <si>
-    <t>4.302+/-0.066</t>
-  </si>
-  <si>
-    <t>0.703+/-0.001</t>
-  </si>
-  <si>
-    <t>0.697+/-0.0</t>
-  </si>
-  <si>
-    <t>0.697</t>
-  </si>
-  <si>
-    <t>0.858+/-0.013</t>
-  </si>
-  <si>
-    <t>0.69+/-0.069</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.041+/-0.004</t>
-  </si>
-  <si>
-    <t>0.031+/-0.012</t>
-  </si>
-  <si>
-    <t>0.028</t>
-  </si>
-  <si>
-    <t>0.719+/-0.022</t>
+    <t>0.854+/-0.014</t>
+  </si>
+  <si>
+    <t>0.697+/-0.074</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.043+/-0.004</t>
+  </si>
+  <si>
+    <t>0.033+/-0.015</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>0.49+/-0.017</t>
   </si>
 </sst>
 </file>
@@ -918,16 +957,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>0.7986820871436255</v>
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -935,19 +974,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>0.7986820871436255</v>
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -955,19 +994,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>0.7983870967741935</v>
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -975,19 +1014,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -995,19 +1034,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1015,19 +1054,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1035,19 +1074,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1055,19 +1094,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1075,19 +1114,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1095,19 +1134,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1145,19 +1184,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2">
-        <v>0.8500537923614847</v>
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1165,19 +1204,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3">
-        <v>0.8500537923614847</v>
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1185,19 +1224,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4">
-        <v>0.85</v>
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1205,19 +1244,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1225,19 +1264,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1245,19 +1284,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1265,19 +1304,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1285,19 +1324,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1305,19 +1344,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1325,19 +1364,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1375,19 +1414,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
         <v>123</v>
       </c>
-      <c r="F2">
-        <v>0.7231038192576654</v>
+      <c r="F2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1395,19 +1434,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3">
-        <v>0.7231038192576654</v>
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1415,19 +1454,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
         <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4">
-        <v>0.7231182795698925</v>
+        <v>125</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1435,19 +1474,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
         <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1455,19 +1494,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
         <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1475,19 +1514,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
         <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1495,19 +1534,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
         <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="F8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1515,19 +1554,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
         <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="F9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1535,19 +1574,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
         <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="F10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1555,19 +1594,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
         <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1605,19 +1644,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2">
-        <v>0.6919042495965573</v>
+        <v>164</v>
+      </c>
+      <c r="F2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1625,19 +1664,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3">
-        <v>0.6919042495965573</v>
+        <v>165</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1645,19 +1684,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4">
-        <v>0.6919354838709677</v>
+        <v>166</v>
+      </c>
+      <c r="F4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1665,19 +1704,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="F5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1685,19 +1724,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="F6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1705,19 +1744,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="F7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1725,19 +1764,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="F8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1745,19 +1784,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>171</v>
+      </c>
+      <c r="F9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1765,19 +1804,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="F10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1785,19 +1824,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="F11" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_50_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_50_1_replicas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="180">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -76,34 +76,37 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.869+/-0.002</t>
-  </si>
-  <si>
-    <t>0.827+/-0.0</t>
-  </si>
-  <si>
-    <t>0.819</t>
-  </si>
-  <si>
-    <t>0.954+/-0.005</t>
-  </si>
-  <si>
-    <t>0.74+/-0.049</t>
-  </si>
-  <si>
-    <t>0.701</t>
-  </si>
-  <si>
-    <t>0.365+/-0.009</t>
-  </si>
-  <si>
-    <t>0.213+/-0.049</t>
-  </si>
-  <si>
-    <t>0.181</t>
-  </si>
-  <si>
-    <t>4.98+/-0.058</t>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.87+/-0.001</t>
+  </si>
+  <si>
+    <t>0.829+/-0.0</t>
+  </si>
+  <si>
+    <t>0.823</t>
+  </si>
+  <si>
+    <t>0.955+/-0.005</t>
+  </si>
+  <si>
+    <t>0.747+/-0.054</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>0.374+/-0.005</t>
+  </si>
+  <si>
+    <t>0.228+/-0.055</t>
+  </si>
+  <si>
+    <t>0.203</t>
+  </si>
+  <si>
+    <t>7.103+/-0.664</t>
   </si>
   <si>
     <t>0.839+/-0.001</t>
@@ -112,88 +115,85 @@
     <t>0.83+/-0.0</t>
   </si>
   <si>
-    <t>0.822</t>
-  </si>
-  <si>
-    <t>0.73+/-0.006</t>
-  </si>
-  <si>
-    <t>0.679+/-0.057</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>0.322+/-0.007</t>
-  </si>
-  <si>
-    <t>0.297+/-0.049</t>
+    <t>0.821</t>
+  </si>
+  <si>
+    <t>0.727+/-0.008</t>
+  </si>
+  <si>
+    <t>0.675+/-0.058</t>
+  </si>
+  <si>
+    <t>0.642</t>
+  </si>
+  <si>
+    <t>0.323+/-0.007</t>
+  </si>
+  <si>
+    <t>0.3+/-0.054</t>
   </si>
   <si>
     <t>0.253</t>
   </si>
   <si>
-    <t>0.922+/-0.016</t>
-  </si>
-  <si>
-    <t>0.866+/-0.002</t>
-  </si>
-  <si>
-    <t>0.834+/-0.0</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.854+/-0.006</t>
-  </si>
-  <si>
-    <t>0.693+/-0.045</t>
-  </si>
-  <si>
-    <t>0.683</t>
-  </si>
-  <si>
-    <t>0.401+/-0.007</t>
-  </si>
-  <si>
-    <t>0.309+/-0.057</t>
-  </si>
-  <si>
-    <t>0.293</t>
-  </si>
-  <si>
-    <t>3.585+/-0.082</t>
+    <t>1.179+/-0.033</t>
+  </si>
+  <si>
+    <t>0.865+/-0.002</t>
+  </si>
+  <si>
+    <t>0.835+/-0.0</t>
+  </si>
+  <si>
+    <t>0.826</t>
+  </si>
+  <si>
+    <t>0.854+/-0.007</t>
+  </si>
+  <si>
+    <t>0.699+/-0.047</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.397+/-0.009</t>
+  </si>
+  <si>
+    <t>0.313+/-0.05</t>
+  </si>
+  <si>
+    <t>0.277</t>
+  </si>
+  <si>
+    <t>4.296+/-0.067</t>
   </si>
   <si>
     <t>0.814+/-0.001</t>
   </si>
   <si>
-    <t>0.808+/-0.0</t>
+    <t>0.807+/-0.0</t>
   </si>
   <si>
     <t>0.805</t>
   </si>
   <si>
-    <t>0.815+/-0.011</t>
-  </si>
-  <si>
-    <t>0.698+/-0.093</t>
-  </si>
-  <si>
-    <t>0.676</t>
-  </si>
-  <si>
-    <t>0.099+/-0.007</t>
-  </si>
-  <si>
-    <t>0.075+/-0.034</t>
-  </si>
-  <si>
-    <t>0.061</t>
-  </si>
-  <si>
-    <t>0.522+/-0.01</t>
+    <t>0.812+/-0.008</t>
+  </si>
+  <si>
+    <t>0.681+/-0.089</t>
+  </si>
+  <si>
+    <t>0.097+/-0.007</t>
+  </si>
+  <si>
+    <t>0.071+/-0.032</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>0.742+/-0.027</t>
   </si>
   <si>
     <t>0.85+/-0.0</t>
@@ -208,28 +208,28 @@
     <t>0.863+/-0.0</t>
   </si>
   <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>0.963+/-0.005</t>
-  </si>
-  <si>
-    <t>0.719+/-0.095</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.298+/-0.007</t>
-  </si>
-  <si>
-    <t>0.144+/-0.031</t>
-  </si>
-  <si>
-    <t>0.122</t>
-  </si>
-  <si>
-    <t>4.813+/-0.06</t>
+    <t>0.859</t>
+  </si>
+  <si>
+    <t>0.964+/-0.005</t>
+  </si>
+  <si>
+    <t>0.701+/-0.069</t>
+  </si>
+  <si>
+    <t>0.655</t>
+  </si>
+  <si>
+    <t>0.298+/-0.006</t>
+  </si>
+  <si>
+    <t>0.152+/-0.031</t>
+  </si>
+  <si>
+    <t>0.129</t>
+  </si>
+  <si>
+    <t>6.149+/-0.353</t>
   </si>
   <si>
     <t>0.874+/-0.001</t>
@@ -259,7 +259,7 @@
     <t>0.176</t>
   </si>
   <si>
-    <t>0.911+/-0.039</t>
+    <t>1.119+/-0.049</t>
   </si>
   <si>
     <t>0.899+/-0.001</t>
@@ -274,7 +274,7 @@
     <t>0.852+/-0.008</t>
   </si>
   <si>
-    <t>0.649+/-0.055</t>
+    <t>0.648+/-0.054</t>
   </si>
   <si>
     <t>0.591</t>
@@ -283,43 +283,43 @@
     <t>0.393+/-0.009</t>
   </si>
   <si>
-    <t>0.272+/-0.04</t>
+    <t>0.274+/-0.04</t>
   </si>
   <si>
     <t>0.244</t>
   </si>
   <si>
-    <t>3.47+/-0.041</t>
+    <t>4.621+/-0.244</t>
   </si>
   <si>
     <t>0.858+/-0.001</t>
   </si>
   <si>
-    <t>0.853+/-0.0</t>
+    <t>0.852+/-0.0</t>
   </si>
   <si>
     <t>0.851</t>
   </si>
   <si>
-    <t>0.833+/-0.019</t>
-  </si>
-  <si>
-    <t>0.646+/-0.112</t>
-  </si>
-  <si>
-    <t>0.583</t>
-  </si>
-  <si>
-    <t>0.069+/-0.009</t>
-  </si>
-  <si>
-    <t>0.041+/-0.008</t>
-  </si>
-  <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t>0.532+/-0.036</t>
+    <t>0.833+/-0.031</t>
+  </si>
+  <si>
+    <t>0.63+/-0.139</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.07+/-0.009</t>
+  </si>
+  <si>
+    <t>0.037+/-0.008</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>0.68+/-0.027</t>
   </si>
   <si>
     <t>0.723+/-0.0</t>
@@ -328,34 +328,34 @@
     <t>0.723</t>
   </si>
   <si>
-    <t>0.781+/-0.003</t>
-  </si>
-  <si>
-    <t>0.735+/-0.0</t>
+    <t>0.78+/-0.002</t>
+  </si>
+  <si>
+    <t>0.734+/-0.0</t>
   </si>
   <si>
     <t>0.737</t>
   </si>
   <si>
-    <t>0.986+/-0.004</t>
-  </si>
-  <si>
-    <t>0.658+/-0.053</t>
+    <t>0.985+/-0.003</t>
+  </si>
+  <si>
+    <t>0.642+/-0.063</t>
   </si>
   <si>
     <t>0.681</t>
   </si>
   <si>
-    <t>0.211+/-0.01</t>
-  </si>
-  <si>
-    <t>0.092+/-0.022</t>
+    <t>0.21+/-0.008</t>
+  </si>
+  <si>
+    <t>0.091+/-0.02</t>
   </si>
   <si>
     <t>0.095</t>
   </si>
   <si>
-    <t>4.982+/-0.081</t>
+    <t>6.064+/-0.236</t>
   </si>
   <si>
     <t>0.742+/-0.001</t>
@@ -385,34 +385,34 @@
     <t>0.115</t>
   </si>
   <si>
-    <t>0.975+/-0.028</t>
+    <t>1.15+/-0.019</t>
   </si>
   <si>
     <t>0.772+/-0.002</t>
   </si>
   <si>
-    <t>0.734+/-0.0</t>
-  </si>
-  <si>
     <t>0.734</t>
   </si>
   <si>
     <t>0.861+/-0.011</t>
   </si>
   <si>
-    <t>0.594+/-0.059</t>
+    <t>0.594+/-0.062</t>
+  </si>
+  <si>
+    <t>0.593</t>
   </si>
   <si>
     <t>0.212+/-0.01</t>
   </si>
   <si>
-    <t>0.131+/-0.023</t>
-  </si>
-  <si>
-    <t>0.126</t>
-  </si>
-  <si>
-    <t>3.796+/-0.086</t>
+    <t>0.131+/-0.024</t>
+  </si>
+  <si>
+    <t>0.124</t>
+  </si>
+  <si>
+    <t>4.496+/-0.191</t>
   </si>
   <si>
     <t>0.733+/-0.001</t>
@@ -421,28 +421,28 @@
     <t>0.728+/-0.0</t>
   </si>
   <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>0.861+/-0.007</t>
-  </si>
-  <si>
-    <t>0.717+/-0.108</t>
-  </si>
-  <si>
-    <t>0.833</t>
-  </si>
-  <si>
-    <t>0.041+/-0.004</t>
-  </si>
-  <si>
-    <t>0.029+/-0.012</t>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.863+/-0.013</t>
+  </si>
+  <si>
+    <t>0.732+/-0.055</t>
+  </si>
+  <si>
+    <t>0.714</t>
+  </si>
+  <si>
+    <t>0.041+/-0.005</t>
+  </si>
+  <si>
+    <t>0.03+/-0.012</t>
   </si>
   <si>
     <t>0.019</t>
   </si>
   <si>
-    <t>0.522+/-0.018</t>
+    <t>0.725+/-0.053</t>
   </si>
   <si>
     <t>0.692+/-0.0</t>
@@ -457,28 +457,28 @@
     <t>0.708+/-0.0</t>
   </si>
   <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.981+/-0.004</t>
-  </si>
-  <si>
-    <t>0.684+/-0.063</t>
-  </si>
-  <si>
-    <t>0.629</t>
-  </si>
-  <si>
-    <t>0.172+/-0.01</t>
-  </si>
-  <si>
-    <t>0.092+/-0.023</t>
-  </si>
-  <si>
-    <t>0.077</t>
-  </si>
-  <si>
-    <t>5.196+/-0.079</t>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>0.98+/-0.005</t>
+  </si>
+  <si>
+    <t>0.689+/-0.068</t>
+  </si>
+  <si>
+    <t>0.639</t>
+  </si>
+  <si>
+    <t>0.173+/-0.009</t>
+  </si>
+  <si>
+    <t>0.093+/-0.022</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>6.427+/-0.609</t>
   </si>
   <si>
     <t>0.712+/-0.001</t>
@@ -508,7 +508,7 @@
     <t>0.084</t>
   </si>
   <si>
-    <t>0.859+/-0.038</t>
+    <t>0.984+/-0.026</t>
   </si>
   <si>
     <t>0.747+/-0.002</t>
@@ -517,19 +517,10 @@
     <t>0.703+/-0.0</t>
   </si>
   <si>
-    <t>0.703</t>
-  </si>
-  <si>
     <t>0.871+/-0.008</t>
   </si>
   <si>
-    <t>0.581+/-0.061</t>
-  </si>
-  <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>0.21+/-0.008</t>
+    <t>0.583+/-0.061</t>
   </si>
   <si>
     <t>0.127+/-0.026</t>
@@ -538,7 +529,7 @@
     <t>0.117</t>
   </si>
   <si>
-    <t>3.399+/-0.14</t>
+    <t>3.81+/-0.061</t>
   </si>
   <si>
     <t>0.703+/-0.001</t>
@@ -550,25 +541,22 @@
     <t>0.695</t>
   </si>
   <si>
-    <t>0.854+/-0.014</t>
-  </si>
-  <si>
-    <t>0.697+/-0.074</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.043+/-0.004</t>
-  </si>
-  <si>
-    <t>0.033+/-0.015</t>
-  </si>
-  <si>
-    <t>0.031</t>
-  </si>
-  <si>
-    <t>0.49+/-0.017</t>
+    <t>0.856+/-0.011</t>
+  </si>
+  <si>
+    <t>0.693+/-0.093</t>
+  </si>
+  <si>
+    <t>0.044+/-0.003</t>
+  </si>
+  <si>
+    <t>0.034+/-0.013</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>0.69+/-0.104</t>
   </si>
 </sst>
 </file>
@@ -957,16 +945,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -977,16 +965,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -997,16 +985,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1017,16 +1005,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1037,16 +1025,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1057,16 +1045,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1077,13 +1065,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1097,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1117,13 +1105,13 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
         <v>57</v>
@@ -1134,16 +1122,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
         <v>58</v>
@@ -1443,7 +1431,7 @@
         <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
         <v>133</v>
@@ -1463,7 +1451,7 @@
         <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
         <v>134</v>
@@ -1483,7 +1471,7 @@
         <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
         <v>135</v>
@@ -1503,7 +1491,7 @@
         <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
         <v>136</v>
@@ -1523,7 +1511,7 @@
         <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
         <v>137</v>
@@ -1594,7 +1582,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>112</v>
@@ -1656,7 +1644,7 @@
         <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1676,7 +1664,7 @@
         <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1693,10 +1681,10 @@
         <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1713,10 +1701,10 @@
         <v>157</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1733,10 +1721,10 @@
         <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1753,10 +1741,10 @@
         <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1773,10 +1761,10 @@
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1793,10 +1781,10 @@
         <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1813,10 +1801,10 @@
         <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1824,7 +1812,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>153</v>
@@ -1833,10 +1821,10 @@
         <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
